--- a/2_semester/DataBase/Импорт данных/Отель.xlsx
+++ b/2_semester/DataBase/Импорт данных/Отель.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ВКИ\VKI_Course2\2_semester\DataBase\Импорт данных\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5A542D-C938-4FD1-8705-26DB8C91EA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="570" windowWidth="28455" windowHeight="11955"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -358,8 +364,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,6 +413,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -607,14 +621,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D761"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="G99" sqref="G99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="40.28515625" style="5" bestFit="1" customWidth="1"/>
@@ -623,7 +637,7 @@
     <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>112</v>
       </c>
@@ -637,7 +651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -651,7 +665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -665,7 +679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -679,7 +693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -693,7 +707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -707,7 +721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -721,7 +735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -735,7 +749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -749,7 +763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -763,7 +777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -777,7 +791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -791,7 +805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -805,7 +819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -819,7 +833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -833,7 +847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -847,7 +861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -861,7 +875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -875,7 +889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -889,7 +903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -903,7 +917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -917,7 +931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -931,7 +945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -945,7 +959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -959,7 +973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -973,7 +987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -987,7 +1001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -1001,7 +1015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -1015,7 +1029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -1029,7 +1043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -1043,7 +1057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -1057,7 +1071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -1071,7 +1085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -1085,7 +1099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -1099,7 +1113,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -1113,7 +1127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -1127,7 +1141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -1141,7 +1155,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -1155,7 +1169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -1169,7 +1183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -1183,7 +1197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -1197,7 +1211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -1211,7 +1225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -1225,7 +1239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1">
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -1239,7 +1253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -1253,7 +1267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1">
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -1267,7 +1281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1">
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -1281,7 +1295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1">
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -1295,7 +1309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -1309,7 +1323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -1323,7 +1337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -1337,7 +1351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -1351,7 +1365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -1365,7 +1379,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -1379,7 +1393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -1393,7 +1407,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1">
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -1407,7 +1421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -1421,7 +1435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -1435,7 +1449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -1449,7 +1463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -1463,7 +1477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -1477,7 +1491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1">
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -1491,7 +1505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -1505,7 +1519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1">
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -1519,7 +1533,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1">
+    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -1533,7 +1547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1">
+    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -1547,7 +1561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1">
+    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -1561,7 +1575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1">
+    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -1575,7 +1589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1">
+    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -1589,7 +1603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1">
+    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -1603,7 +1617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.75" customHeight="1">
+    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -1617,7 +1631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1">
+    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -1631,7 +1645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15.75" customHeight="1">
+    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -1645,7 +1659,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1">
+    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -1659,7 +1673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15.75" customHeight="1">
+    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -1673,7 +1687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15.75" customHeight="1">
+    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -1687,7 +1701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15.75" customHeight="1">
+    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -1701,7 +1715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15.75" customHeight="1">
+    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -1715,7 +1729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15.75" customHeight="1">
+    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -1729,7 +1743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15.75" customHeight="1">
+    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -1743,7 +1757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.75" customHeight="1">
+    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -1757,7 +1771,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15.75" customHeight="1">
+    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>82</v>
       </c>
@@ -1771,7 +1785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15.75" customHeight="1">
+    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>83</v>
       </c>
@@ -1785,7 +1799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15.75" customHeight="1">
+    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -1799,7 +1813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15.75" customHeight="1">
+    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -1813,7 +1827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15.75" customHeight="1">
+    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -1827,7 +1841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.75" customHeight="1">
+    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -1841,7 +1855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15.75" customHeight="1">
+    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>88</v>
       </c>
@@ -1855,7 +1869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15.75" customHeight="1">
+    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>89</v>
       </c>
@@ -1869,7 +1883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15.75" customHeight="1">
+    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>90</v>
       </c>
@@ -1883,7 +1897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15.75" customHeight="1">
+    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>91</v>
       </c>
@@ -1897,7 +1911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15.75" customHeight="1">
+    <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>92</v>
       </c>
@@ -1911,7 +1925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15.75" customHeight="1">
+    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>93</v>
       </c>
@@ -1925,7 +1939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15.75" customHeight="1">
+    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>94</v>
       </c>
@@ -1939,7 +1953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15.75" customHeight="1">
+    <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>95</v>
       </c>
@@ -1953,7 +1967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15.75" customHeight="1">
+    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>96</v>
       </c>
@@ -1967,7 +1981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.75" customHeight="1">
+    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>97</v>
       </c>
@@ -1981,7 +1995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15.75" customHeight="1">
+    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>98</v>
       </c>
@@ -1995,7 +2009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.75" customHeight="1">
+    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>99</v>
       </c>
@@ -2009,7 +2023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15.75" customHeight="1">
+    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -2023,7 +2037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15.75" customHeight="1">
+    <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>101</v>
       </c>
@@ -2037,666 +2051,666 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="103" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="104" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="105" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="106" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="107" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="108" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="109" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="110" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="111" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="112" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/2_semester/DataBase/Импорт данных/Отель.xlsx
+++ b/2_semester/DataBase/Импорт данных/Отель.xlsx
@@ -1,19 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ВКИ\VKI_Course2\2_semester\DataBase\Импорт данных\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5A542D-C938-4FD1-8705-26DB8C91EA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -364,8 +358,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,14 +393,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -621,41 +616,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D761"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4">
+      <c r="A2" s="6">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C2" s="1">
@@ -665,11 +659,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:4">
+      <c r="A3" s="6">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>111</v>
       </c>
       <c r="C3" s="1">
@@ -679,11 +673,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="6">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1">
@@ -693,11 +687,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="6">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1">
@@ -707,11 +701,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:4">
+      <c r="A6" s="6">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C6" s="1">
@@ -721,11 +715,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:4">
+      <c r="A7" s="6">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1">
@@ -735,11 +729,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:4">
+      <c r="A8" s="6">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1">
@@ -749,11 +743,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:4">
+      <c r="A9" s="6">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="1">
@@ -763,11 +757,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:4">
+      <c r="A10" s="6">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="1">
@@ -777,11 +771,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:4">
+      <c r="A11" s="6">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1">
@@ -791,11 +785,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:4">
+      <c r="A12" s="6">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="1">
@@ -805,11 +799,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:4">
+      <c r="A13" s="6">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="1">
@@ -819,11 +813,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:4">
+      <c r="A14" s="6">
         <v>14</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="1">
@@ -833,11 +827,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:4">
+      <c r="A15" s="6">
         <v>15</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="1">
@@ -847,11 +841,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:4">
+      <c r="A16" s="6">
         <v>16</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="1">
@@ -861,11 +855,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:4">
+      <c r="A17" s="6">
         <v>17</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="1">
@@ -875,11 +869,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:4">
+      <c r="A18" s="6">
         <v>18</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="1">
@@ -889,11 +883,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:4">
+      <c r="A19" s="6">
         <v>19</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="1">
@@ -903,11 +897,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:4">
+      <c r="A20" s="6">
         <v>20</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="1">
@@ -917,11 +911,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:4">
+      <c r="A21" s="6">
         <v>21</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="1">
@@ -931,11 +925,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:4">
+      <c r="A22" s="6">
         <v>22</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="1">
@@ -945,11 +939,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:4">
+      <c r="A23" s="6">
         <v>23</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="1">
@@ -959,11 +953,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" spans="1:4">
+      <c r="A24" s="6">
         <v>24</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="1">
@@ -973,11 +967,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25" spans="1:4">
+      <c r="A25" s="6">
         <v>25</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="1">
@@ -987,11 +981,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" spans="1:4">
+      <c r="A26" s="6">
         <v>26</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="1">
@@ -1001,11 +995,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27" spans="1:4">
+      <c r="A27" s="6">
         <v>27</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="1">
@@ -1015,11 +1009,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28" spans="1:4">
+      <c r="A28" s="6">
         <v>28</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C28" s="1">
@@ -1029,11 +1023,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" spans="1:4">
+      <c r="A29" s="6">
         <v>29</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="1">
@@ -1043,11 +1037,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" spans="1:4">
+      <c r="A30" s="6">
         <v>30</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C30" s="1">
@@ -1057,11 +1051,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31" spans="1:4">
+      <c r="A31" s="6">
         <v>31</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="1">
@@ -1071,11 +1065,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32" spans="1:4">
+      <c r="A32" s="6">
         <v>32</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C32" s="1">
@@ -1085,11 +1079,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="33" spans="1:4">
+      <c r="A33" s="6">
         <v>33</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="1">
@@ -1099,11 +1093,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="34" spans="1:4">
+      <c r="A34" s="6">
         <v>34</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="1">
@@ -1113,11 +1107,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="35" spans="1:4">
+      <c r="A35" s="6">
         <v>35</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C35" s="1">
@@ -1127,11 +1121,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="36" spans="1:4">
+      <c r="A36" s="6">
         <v>36</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C36" s="1">
@@ -1141,11 +1135,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+    <row r="37" spans="1:4">
+      <c r="A37" s="6">
         <v>37</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C37" s="1">
@@ -1155,11 +1149,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+    <row r="38" spans="1:4">
+      <c r="A38" s="6">
         <v>38</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="1">
@@ -1169,11 +1163,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="39" spans="1:4">
+      <c r="A39" s="6">
         <v>39</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C39" s="1">
@@ -1183,11 +1177,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+    <row r="40" spans="1:4">
+      <c r="A40" s="6">
         <v>40</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="1">
@@ -1197,11 +1191,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+    <row r="41" spans="1:4">
+      <c r="A41" s="6">
         <v>41</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="1">
@@ -1211,11 +1205,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+    <row r="42" spans="1:4">
+      <c r="A42" s="6">
         <v>42</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="1">
@@ -1225,11 +1219,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+    <row r="43" spans="1:4">
+      <c r="A43" s="6">
         <v>43</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="1">
@@ -1239,11 +1233,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+    <row r="44" spans="1:4">
+      <c r="A44" s="6">
         <v>44</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C44" s="1">
@@ -1253,11 +1247,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+    <row r="45" spans="1:4">
+      <c r="A45" s="6">
         <v>45</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C45" s="1">
@@ -1267,11 +1261,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+    <row r="46" spans="1:4">
+      <c r="A46" s="6">
         <v>46</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C46" s="1">
@@ -1281,11 +1275,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+    <row r="47" spans="1:4">
+      <c r="A47" s="6">
         <v>47</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C47" s="1">
@@ -1295,11 +1289,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+    <row r="48" spans="1:4">
+      <c r="A48" s="6">
         <v>48</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C48" s="1">
@@ -1309,11 +1303,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+    <row r="49" spans="1:4">
+      <c r="A49" s="6">
         <v>49</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C49" s="1">
@@ -1323,11 +1317,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+    <row r="50" spans="1:4">
+      <c r="A50" s="6">
         <v>50</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C50" s="1">
@@ -1337,11 +1331,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+    <row r="51" spans="1:4">
+      <c r="A51" s="6">
         <v>51</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C51" s="1">
@@ -1351,11 +1345,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+    <row r="52" spans="1:4">
+      <c r="A52" s="6">
         <v>52</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C52" s="1">
@@ -1365,11 +1359,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+    <row r="53" spans="1:4">
+      <c r="A53" s="6">
         <v>53</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C53" s="1">
@@ -1379,11 +1373,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+    <row r="54" spans="1:4">
+      <c r="A54" s="6">
         <v>54</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C54" s="1">
@@ -1393,11 +1387,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+    <row r="55" spans="1:4">
+      <c r="A55" s="6">
         <v>55</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C55" s="1">
@@ -1407,11 +1401,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+    <row r="56" spans="1:4">
+      <c r="A56" s="6">
         <v>56</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C56" s="1">
@@ -1421,11 +1415,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+    <row r="57" spans="1:4">
+      <c r="A57" s="6">
         <v>57</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C57" s="1">
@@ -1435,11 +1429,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+    <row r="58" spans="1:4">
+      <c r="A58" s="6">
         <v>58</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C58" s="1">
@@ -1449,11 +1443,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+    <row r="59" spans="1:4">
+      <c r="A59" s="6">
         <v>59</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C59" s="1">
@@ -1463,11 +1457,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+    <row r="60" spans="1:4">
+      <c r="A60" s="6">
         <v>60</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C60" s="1">
@@ -1477,11 +1471,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+    <row r="61" spans="1:4">
+      <c r="A61" s="6">
         <v>61</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C61" s="1">
@@ -1491,11 +1485,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+    <row r="62" spans="1:4">
+      <c r="A62" s="6">
         <v>62</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C62" s="1">
@@ -1505,11 +1499,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+    <row r="63" spans="1:4">
+      <c r="A63" s="6">
         <v>63</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C63" s="1">
@@ -1519,11 +1513,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+    <row r="64" spans="1:4">
+      <c r="A64" s="6">
         <v>64</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C64" s="1">
@@ -1533,11 +1527,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+    <row r="65" spans="1:4">
+      <c r="A65" s="6">
         <v>65</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C65" s="1">
@@ -1547,11 +1541,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+    <row r="66" spans="1:4">
+      <c r="A66" s="6">
         <v>66</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C66" s="1">
@@ -1561,11 +1555,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+    <row r="67" spans="1:4">
+      <c r="A67" s="6">
         <v>67</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C67" s="1">
@@ -1575,11 +1569,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+    <row r="68" spans="1:4">
+      <c r="A68" s="6">
         <v>68</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C68" s="1">
@@ -1589,11 +1583,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+    <row r="69" spans="1:4">
+      <c r="A69" s="6">
         <v>69</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C69" s="1">
@@ -1603,11 +1597,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+    <row r="70" spans="1:4">
+      <c r="A70" s="6">
         <v>70</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C70" s="1">
@@ -1617,11 +1611,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+    <row r="71" spans="1:4">
+      <c r="A71" s="6">
         <v>71</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C71" s="1">
@@ -1631,11 +1625,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+    <row r="72" spans="1:4">
+      <c r="A72" s="6">
         <v>72</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C72" s="1">
@@ -1645,11 +1639,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+    <row r="73" spans="1:4">
+      <c r="A73" s="6">
         <v>73</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C73" s="1">
@@ -1659,11 +1653,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+    <row r="74" spans="1:4">
+      <c r="A74" s="6">
         <v>74</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C74" s="1">
@@ -1673,11 +1667,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
+    <row r="75" spans="1:4">
+      <c r="A75" s="6">
         <v>75</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C75" s="1">
@@ -1687,11 +1681,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
+    <row r="76" spans="1:4">
+      <c r="A76" s="6">
         <v>76</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C76" s="1">
@@ -1701,11 +1695,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
+    <row r="77" spans="1:4">
+      <c r="A77" s="6">
         <v>77</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C77" s="1">
@@ -1715,11 +1709,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
+    <row r="78" spans="1:4">
+      <c r="A78" s="6">
         <v>78</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C78" s="1">
@@ -1729,11 +1723,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
+    <row r="79" spans="1:4">
+      <c r="A79" s="6">
         <v>79</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C79" s="1">
@@ -1743,11 +1737,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
+    <row r="80" spans="1:4">
+      <c r="A80" s="6">
         <v>80</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C80" s="1">
@@ -1757,11 +1751,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
+    <row r="81" spans="1:4">
+      <c r="A81" s="6">
         <v>81</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C81" s="1">
@@ -1771,11 +1765,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
+    <row r="82" spans="1:4">
+      <c r="A82" s="6">
         <v>82</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C82" s="1">
@@ -1785,11 +1779,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
+    <row r="83" spans="1:4">
+      <c r="A83" s="6">
         <v>83</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C83" s="1">
@@ -1799,11 +1793,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
+    <row r="84" spans="1:4">
+      <c r="A84" s="6">
         <v>84</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C84" s="1">
@@ -1813,11 +1807,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
+    <row r="85" spans="1:4">
+      <c r="A85" s="6">
         <v>85</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C85" s="1">
@@ -1827,11 +1821,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
+    <row r="86" spans="1:4">
+      <c r="A86" s="6">
         <v>86</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C86" s="1">
@@ -1841,11 +1835,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
+    <row r="87" spans="1:4">
+      <c r="A87" s="6">
         <v>87</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C87" s="1">
@@ -1855,11 +1849,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
+    <row r="88" spans="1:4">
+      <c r="A88" s="6">
         <v>88</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C88" s="1">
@@ -1869,11 +1863,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
+    <row r="89" spans="1:4">
+      <c r="A89" s="6">
         <v>89</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C89" s="1">
@@ -1883,11 +1877,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
+    <row r="90" spans="1:4">
+      <c r="A90" s="6">
         <v>90</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C90" s="1">
@@ -1897,11 +1891,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
+    <row r="91" spans="1:4">
+      <c r="A91" s="6">
         <v>91</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C91" s="1">
@@ -1911,11 +1905,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
+    <row r="92" spans="1:4">
+      <c r="A92" s="6">
         <v>92</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C92" s="1">
@@ -1925,11 +1919,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
+    <row r="93" spans="1:4">
+      <c r="A93" s="6">
         <v>93</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C93" s="1">
@@ -1939,11 +1933,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
+    <row r="94" spans="1:4">
+      <c r="A94" s="6">
         <v>94</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C94" s="1">
@@ -1953,11 +1947,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
+    <row r="95" spans="1:4">
+      <c r="A95" s="6">
         <v>95</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C95" s="1">
@@ -1967,11 +1961,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
+    <row r="96" spans="1:4">
+      <c r="A96" s="6">
         <v>96</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C96" s="1">
@@ -1981,11 +1975,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
+    <row r="97" spans="1:4">
+      <c r="A97" s="6">
         <v>97</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C97" s="1">
@@ -1995,11 +1989,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
+    <row r="98" spans="1:4">
+      <c r="A98" s="6">
         <v>98</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C98" s="1">
@@ -2009,11 +2003,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
+    <row r="99" spans="1:4">
+      <c r="A99" s="6">
         <v>99</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C99" s="1">
@@ -2023,11 +2017,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
+    <row r="100" spans="1:4">
+      <c r="A100" s="6">
         <v>100</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C100" s="1">
@@ -2037,11 +2031,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
+    <row r="101" spans="1:4">
+      <c r="A101" s="6">
         <v>101</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C101" s="1">
@@ -2051,668 +2045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>